--- a/CCR Trade Data.xlsx
+++ b/CCR Trade Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\superan.verma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Superan Shree Verma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAA7E63-4A40-45E8-965C-1A962E3FAE96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trade Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="199">
   <si>
     <t>COB Date</t>
   </si>
@@ -182,201 +183,6 @@
     <t>CID1000TDD30</t>
   </si>
   <si>
-    <t>CID1000TDD31</t>
-  </si>
-  <si>
-    <t>CID1000TDD32</t>
-  </si>
-  <si>
-    <t>CID1000TDD33</t>
-  </si>
-  <si>
-    <t>CID1000TDD34</t>
-  </si>
-  <si>
-    <t>CID1000TDD35</t>
-  </si>
-  <si>
-    <t>CID1000TDD36</t>
-  </si>
-  <si>
-    <t>CID1000TDD37</t>
-  </si>
-  <si>
-    <t>CID1000TDD38</t>
-  </si>
-  <si>
-    <t>CID1000TDD39</t>
-  </si>
-  <si>
-    <t>CID1000TDD40</t>
-  </si>
-  <si>
-    <t>CID1000TDD41</t>
-  </si>
-  <si>
-    <t>CID1000TDD42</t>
-  </si>
-  <si>
-    <t>CID1000TDD43</t>
-  </si>
-  <si>
-    <t>CID1000TDD44</t>
-  </si>
-  <si>
-    <t>CID1000TDD45</t>
-  </si>
-  <si>
-    <t>CID1000TDD46</t>
-  </si>
-  <si>
-    <t>CID1000TDD47</t>
-  </si>
-  <si>
-    <t>CID1000TDD48</t>
-  </si>
-  <si>
-    <t>CID1000TDD49</t>
-  </si>
-  <si>
-    <t>CID1000TDD50</t>
-  </si>
-  <si>
-    <t>CID1000TDD51</t>
-  </si>
-  <si>
-    <t>CID1000TDD52</t>
-  </si>
-  <si>
-    <t>CID1000TDD53</t>
-  </si>
-  <si>
-    <t>CID1000TDD54</t>
-  </si>
-  <si>
-    <t>CID1000TDD55</t>
-  </si>
-  <si>
-    <t>CID1000TDD56</t>
-  </si>
-  <si>
-    <t>CID1000TDD57</t>
-  </si>
-  <si>
-    <t>CID1000TDD58</t>
-  </si>
-  <si>
-    <t>CID1000TDD59</t>
-  </si>
-  <si>
-    <t>CID1000TDD60</t>
-  </si>
-  <si>
-    <t>CID1000TDD61</t>
-  </si>
-  <si>
-    <t>CID1000TDD62</t>
-  </si>
-  <si>
-    <t>CID1000TDD63</t>
-  </si>
-  <si>
-    <t>CID1000TDD64</t>
-  </si>
-  <si>
-    <t>CID1000TDD65</t>
-  </si>
-  <si>
-    <t>CID1000TDD66</t>
-  </si>
-  <si>
-    <t>CID1000TDD67</t>
-  </si>
-  <si>
-    <t>CID1000TDD68</t>
-  </si>
-  <si>
-    <t>CID1000TDD69</t>
-  </si>
-  <si>
-    <t>CID1000TDD70</t>
-  </si>
-  <si>
-    <t>CID1000TDD71</t>
-  </si>
-  <si>
-    <t>CID1000TDD72</t>
-  </si>
-  <si>
-    <t>CID1000TDD73</t>
-  </si>
-  <si>
-    <t>CID1000TDD74</t>
-  </si>
-  <si>
-    <t>CID1000TDD75</t>
-  </si>
-  <si>
-    <t>CID1000TDD76</t>
-  </si>
-  <si>
-    <t>CID1000TDD77</t>
-  </si>
-  <si>
-    <t>CID1000TDD78</t>
-  </si>
-  <si>
-    <t>CID1000TDD79</t>
-  </si>
-  <si>
-    <t>CID1000TDD80</t>
-  </si>
-  <si>
-    <t>CID1000TDD81</t>
-  </si>
-  <si>
-    <t>CID1000TDD82</t>
-  </si>
-  <si>
-    <t>CID1000TDD83</t>
-  </si>
-  <si>
-    <t>CID1000TDD84</t>
-  </si>
-  <si>
-    <t>CID1000TDD85</t>
-  </si>
-  <si>
-    <t>CID1000TDD86</t>
-  </si>
-  <si>
-    <t>CID1000TDD87</t>
-  </si>
-  <si>
-    <t>CID1000TDD88</t>
-  </si>
-  <si>
-    <t>CID1000TDD89</t>
-  </si>
-  <si>
-    <t>CID1000TDD90</t>
-  </si>
-  <si>
-    <t>CID1000TDD91</t>
-  </si>
-  <si>
-    <t>CID1000TDD92</t>
-  </si>
-  <si>
-    <t>CID1000TDD93</t>
-  </si>
-  <si>
-    <t>CID1000TDD94</t>
-  </si>
-  <si>
-    <t>CID1000TDD95</t>
-  </si>
-  <si>
     <t>CSA0001DDT1</t>
   </si>
   <si>
@@ -464,204 +270,9 @@
     <t>CSA0001DDT30</t>
   </si>
   <si>
-    <t>CSA0001DDT31</t>
-  </si>
-  <si>
-    <t>CSA0001DDT32</t>
-  </si>
-  <si>
-    <t>CSA0001DDT33</t>
-  </si>
-  <si>
-    <t>CSA0001DDT34</t>
-  </si>
-  <si>
     <t>CSA0001DDT3</t>
   </si>
   <si>
-    <t>CSA0001DDT35</t>
-  </si>
-  <si>
-    <t>CSA0001DDT36</t>
-  </si>
-  <si>
-    <t>CSA0001DDT37</t>
-  </si>
-  <si>
-    <t>CSA0001DDT38</t>
-  </si>
-  <si>
-    <t>CSA0001DDT39</t>
-  </si>
-  <si>
-    <t>CSA0001DDT40</t>
-  </si>
-  <si>
-    <t>CSA0001DDT41</t>
-  </si>
-  <si>
-    <t>CSA0001DDT42</t>
-  </si>
-  <si>
-    <t>CSA0001DDT43</t>
-  </si>
-  <si>
-    <t>CSA0001DDT44</t>
-  </si>
-  <si>
-    <t>CSA0001DDT45</t>
-  </si>
-  <si>
-    <t>CSA0001DDT46</t>
-  </si>
-  <si>
-    <t>CSA0001DDT47</t>
-  </si>
-  <si>
-    <t>CSA0001DDT48</t>
-  </si>
-  <si>
-    <t>CSA0001DDT49</t>
-  </si>
-  <si>
-    <t>CSA0001DDT50</t>
-  </si>
-  <si>
-    <t>CSA0001DDT51</t>
-  </si>
-  <si>
-    <t>CSA0001DDT52</t>
-  </si>
-  <si>
-    <t>CSA0001DDT53</t>
-  </si>
-  <si>
-    <t>CSA0001DDT54</t>
-  </si>
-  <si>
-    <t>CSA0001DDT55</t>
-  </si>
-  <si>
-    <t>CSA0001DDT56</t>
-  </si>
-  <si>
-    <t>CSA0001DDT57</t>
-  </si>
-  <si>
-    <t>CSA0001DDT58</t>
-  </si>
-  <si>
-    <t>CSA0001DDT59</t>
-  </si>
-  <si>
-    <t>CSA0001DDT60</t>
-  </si>
-  <si>
-    <t>CSA0001DDT61</t>
-  </si>
-  <si>
-    <t>CSA0001DDT62</t>
-  </si>
-  <si>
-    <t>CSA0001DDT63</t>
-  </si>
-  <si>
-    <t>CSA0001DDT64</t>
-  </si>
-  <si>
-    <t>CSA0001DDT65</t>
-  </si>
-  <si>
-    <t>CSA0001DDT66</t>
-  </si>
-  <si>
-    <t>CSA0001DDT67</t>
-  </si>
-  <si>
-    <t>CSA0001DDT68</t>
-  </si>
-  <si>
-    <t>CSA0001DDT69</t>
-  </si>
-  <si>
-    <t>CSA0001DDT70</t>
-  </si>
-  <si>
-    <t>CSA0001DDT71</t>
-  </si>
-  <si>
-    <t>CSA0001DDT72</t>
-  </si>
-  <si>
-    <t>CSA0001DDT73</t>
-  </si>
-  <si>
-    <t>CSA0001DDT74</t>
-  </si>
-  <si>
-    <t>CSA0001DDT75</t>
-  </si>
-  <si>
-    <t>CSA0001DDT76</t>
-  </si>
-  <si>
-    <t>CSA0001DDT77</t>
-  </si>
-  <si>
-    <t>CSA0001DDT78</t>
-  </si>
-  <si>
-    <t>CSA0001DDT79</t>
-  </si>
-  <si>
-    <t>CSA0001DDT80</t>
-  </si>
-  <si>
-    <t>CSA0001DDT81</t>
-  </si>
-  <si>
-    <t>CSA0001DDT82</t>
-  </si>
-  <si>
-    <t>CSA0001DDT83</t>
-  </si>
-  <si>
-    <t>CSA0001DDT84</t>
-  </si>
-  <si>
-    <t>CSA0001DDT85</t>
-  </si>
-  <si>
-    <t>CSA0001DDT86</t>
-  </si>
-  <si>
-    <t>CSA0001DDT87</t>
-  </si>
-  <si>
-    <t>CSA0001DDT88</t>
-  </si>
-  <si>
-    <t>CSA0001DDT89</t>
-  </si>
-  <si>
-    <t>CSA0001DDT90</t>
-  </si>
-  <si>
-    <t>CSA0001DDT91</t>
-  </si>
-  <si>
-    <t>CSA0001DDT92</t>
-  </si>
-  <si>
-    <t>CSA0001DDT93</t>
-  </si>
-  <si>
-    <t>CSA0001DDT94</t>
-  </si>
-  <si>
-    <t>CSA0001DDT95</t>
-  </si>
-  <si>
     <t>TID100001</t>
   </si>
   <si>
@@ -1010,16 +621,13 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>CSA0001DDT96</t>
-  </si>
-  <si>
-    <t>CSA0001DDT97</t>
+    <t>ETD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1367,26 +975,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1443,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3">
         <v>43100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J2" s="4">
-        <v>5.2599601195925301</v>
+        <v>525996.011959253</v>
       </c>
       <c r="K2" s="4">
-        <v>2.6288414093530501</v>
+        <v>262884.14093530498</v>
       </c>
       <c r="L2" s="3">
         <v>43830</v>
@@ -1484,28 +1091,28 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3">
         <v>43100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J3" s="4">
-        <v>1.7897352188996019</v>
+        <v>178973.52188996019</v>
       </c>
       <c r="K3" s="4">
-        <v>0.45683666468748291</v>
+        <v>45683.666468748292</v>
       </c>
       <c r="L3" s="3">
         <v>43830</v>
@@ -1525,28 +1132,28 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="F4" s="3">
         <v>43100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J4" s="4">
-        <v>93.221223015202298</v>
+        <v>9322122.3015202302</v>
       </c>
       <c r="K4" s="4">
-        <v>54.904765642714892</v>
+        <v>5490476.5642714892</v>
       </c>
       <c r="L4" s="3">
         <v>43830</v>
@@ -1566,28 +1173,28 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3">
         <v>43100</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J5" s="4">
-        <v>63.52814314477223</v>
+        <v>6352814.314477223</v>
       </c>
       <c r="K5" s="4">
-        <v>47.184360512772798</v>
+        <v>4718436.0512772799</v>
       </c>
       <c r="L5" s="3">
         <v>43830</v>
@@ -1607,28 +1214,28 @@
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3">
         <v>43100</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J6" s="4">
-        <v>38.608790260188997</v>
+        <v>3860879.0260188999</v>
       </c>
       <c r="K6" s="4">
-        <v>10.430596780224739</v>
+        <v>1043059.6780224739</v>
       </c>
       <c r="L6" s="3">
         <v>43830</v>
@@ -1648,28 +1255,28 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>216</v>
+        <v>86</v>
       </c>
       <c r="F7" s="3">
         <v>43100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J7" s="4">
-        <v>77.353951868794994</v>
+        <v>7735395.1868794998</v>
       </c>
       <c r="K7" s="4">
-        <v>56.734132279883575</v>
+        <v>5673413.2279883577</v>
       </c>
       <c r="L7" s="3">
         <v>43830</v>
@@ -1689,28 +1296,28 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3">
         <v>43100</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J8" s="4">
-        <v>92.946462409356585</v>
+        <v>9294646.240935659</v>
       </c>
       <c r="K8" s="4">
-        <v>65.584638848760221</v>
+        <v>6558463.8848760221</v>
       </c>
       <c r="L8" s="3">
         <v>43830</v>
@@ -1730,28 +1337,28 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3">
         <v>43100</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J9" s="4">
-        <v>11.238946559416362</v>
+        <v>1123894.6559416363</v>
       </c>
       <c r="K9" s="4">
-        <v>5.8310243171552436</v>
+        <v>583102.43171552441</v>
       </c>
       <c r="L9" s="3">
         <v>43830</v>
@@ -1771,28 +1378,28 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3">
         <v>43131</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J10" s="4">
-        <v>55.209659085982196</v>
+        <v>5520965.90859822</v>
       </c>
       <c r="K10" s="4">
-        <v>24.441604538954401</v>
+        <v>2444160.4538954403</v>
       </c>
       <c r="L10" s="3">
         <v>43861</v>
@@ -1812,28 +1419,28 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="F11" s="3">
         <v>43131</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J11" s="4">
-        <v>61.269457275712824</v>
+        <v>6126945.7275712825</v>
       </c>
       <c r="K11" s="4">
-        <v>16.510055436206422</v>
+        <v>1651005.543620642</v>
       </c>
       <c r="L11" s="3">
         <v>43861</v>
@@ -1853,28 +1460,28 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3">
         <v>43131</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J12" s="4">
-        <v>68.839634247377276</v>
+        <v>6883963.4247377273</v>
       </c>
       <c r="K12" s="4">
-        <v>9.6367611631632499</v>
+        <v>963676.11631632503</v>
       </c>
       <c r="L12" s="3">
         <v>43861</v>
@@ -1894,28 +1501,28 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>223</v>
+        <v>93</v>
       </c>
       <c r="F13" s="3">
         <v>43131</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J13" s="4">
-        <v>34.0460717686504</v>
+        <v>3404607.1768650399</v>
       </c>
       <c r="K13" s="4">
-        <v>30.665289117005759</v>
+        <v>3066528.9117005761</v>
       </c>
       <c r="L13" s="3">
         <v>43861</v>
@@ -1935,28 +1542,28 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3">
         <v>43131</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J14" s="4">
-        <v>5.935961020932579</v>
+        <v>593596.10209325794</v>
       </c>
       <c r="K14" s="4">
-        <v>2.1851243110206173</v>
+        <v>218512.43110206173</v>
       </c>
       <c r="L14" s="3">
         <v>43861</v>
@@ -1976,28 +1583,28 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3">
         <v>43131</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J15" s="4">
-        <v>16.634162318931178</v>
+        <v>1663416.2318931178</v>
       </c>
       <c r="K15" s="4">
-        <v>9.2063504493020046E-2</v>
+        <v>9206.3504493020046</v>
       </c>
       <c r="L15" s="3">
         <v>43861</v>
@@ -2017,28 +1624,28 @@
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="F16" s="3">
         <v>43131</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J16" s="4">
-        <v>7.698633858991089</v>
+        <v>769863.38589910895</v>
       </c>
       <c r="K16" s="4">
-        <v>5.7932356749826823</v>
+        <v>579323.56749826821</v>
       </c>
       <c r="L16" s="3">
         <v>43861</v>
@@ -2058,28 +1665,28 @@
         <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="F17" s="3">
         <v>43131</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J17" s="4">
-        <v>69.281347971786531</v>
+        <v>6928134.7971786531</v>
       </c>
       <c r="K17" s="4">
-        <v>22.652007237553732</v>
+        <v>2265200.7237553732</v>
       </c>
       <c r="L17" s="3">
         <v>43861</v>
@@ -2099,28 +1706,28 @@
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="F18" s="3">
         <v>43159</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J18" s="4">
-        <v>27.349804581108806</v>
+        <v>2734980.4581108806</v>
       </c>
       <c r="K18" s="4">
-        <v>16.509780804306168</v>
+        <v>1650978.0804306169</v>
       </c>
       <c r="L18" s="3">
         <v>43889</v>
@@ -2140,28 +1747,28 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3">
         <v>43159</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J19" s="4">
-        <v>5.7775373961377881</v>
+        <v>577753.73961377877</v>
       </c>
       <c r="K19" s="4">
-        <v>5.179321036417651</v>
+        <v>517932.10364176508</v>
       </c>
       <c r="L19" s="3">
         <v>43889</v>
@@ -2181,28 +1788,28 @@
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>43159</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J20" s="4">
-        <v>29.162086744658879</v>
+        <v>2916208.6744658877</v>
       </c>
       <c r="K20" s="4">
-        <v>25.36816348192502</v>
+        <v>2536816.3481925018</v>
       </c>
       <c r="L20" s="3">
         <v>43889</v>
@@ -2222,28 +1829,28 @@
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3">
         <v>43159</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J21" s="4">
-        <v>78.838019545761739</v>
+        <v>7883801.9545761738</v>
       </c>
       <c r="K21" s="4">
-        <v>66.401955061446827</v>
+        <v>6640195.5061446829</v>
       </c>
       <c r="L21" s="3">
         <v>43889</v>
@@ -2263,28 +1870,28 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="F22" s="3">
         <v>43159</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J22" s="4">
-        <v>99.283227097369888</v>
+        <v>9928322.7097369879</v>
       </c>
       <c r="K22" s="4">
-        <v>86.469125931867865</v>
+        <v>8646912.5931867864</v>
       </c>
       <c r="L22" s="3">
         <v>43889</v>
@@ -2304,28 +1911,28 @@
         <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3">
         <v>42794</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J23" s="4">
-        <v>19.215380536335569</v>
+        <v>1921538.0536335569</v>
       </c>
       <c r="K23" s="4">
-        <v>11.107125620950148</v>
+        <v>1110712.5620950148</v>
       </c>
       <c r="L23" s="3">
         <v>43889</v>
@@ -2345,28 +1952,28 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="F24" s="3">
         <v>42794</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J24" s="4">
-        <v>89.877230316927779</v>
+        <v>8987723.0316927787</v>
       </c>
       <c r="K24" s="4">
-        <v>71.242680877579446</v>
+        <v>7124268.0877579441</v>
       </c>
       <c r="L24" s="3">
         <v>43889</v>
@@ -2386,28 +1993,28 @@
         <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="F25" s="3">
         <v>42794</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J25" s="4">
-        <v>10.683217088446195</v>
+        <v>1068321.7088446196</v>
       </c>
       <c r="K25" s="4">
-        <v>6.8349950865614941</v>
+        <v>683499.50865614938</v>
       </c>
       <c r="L25" s="3">
         <v>43889</v>
@@ -2427,28 +2034,28 @@
         <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3">
         <v>42825</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J26" s="4">
-        <v>32.536241845060118</v>
+        <v>3253624.1845060117</v>
       </c>
       <c r="K26" s="4">
-        <v>8.5449837712598882</v>
+        <v>854498.37712598883</v>
       </c>
       <c r="L26" s="3">
         <v>43920</v>
@@ -2468,28 +2075,28 @@
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="F27" s="3">
         <v>42825</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J27" s="4">
-        <v>7.9243495233796253</v>
+        <v>792434.95233796258</v>
       </c>
       <c r="K27" s="4">
-        <v>6.8578721813985224</v>
+        <v>685787.21813985228</v>
       </c>
       <c r="L27" s="3">
         <v>43920</v>
@@ -2509,28 +2116,28 @@
         <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3">
         <v>42825</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J28" s="4">
-        <v>31.683468671586958</v>
+        <v>3168346.8671586956</v>
       </c>
       <c r="K28" s="4">
-        <v>9.9197986070602333</v>
+        <v>991979.86070602329</v>
       </c>
       <c r="L28" s="3">
         <v>43920</v>
@@ -2550,28 +2157,28 @@
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="F29" s="3">
         <v>42825</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J29" s="4">
-        <v>78.751860891846221</v>
+        <v>7875186.0891846223</v>
       </c>
       <c r="K29" s="4">
-        <v>28.153847542035127</v>
+        <v>2815384.7542035128</v>
       </c>
       <c r="L29" s="3">
         <v>43920</v>
@@ -2591,28 +2198,28 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="F30" s="3">
         <v>42825</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J30" s="4">
-        <v>89.333644375165562</v>
+        <v>8933364.4375165571</v>
       </c>
       <c r="K30" s="4">
-        <v>67.201010556688445</v>
+        <v>6720101.0556688448</v>
       </c>
       <c r="L30" s="3">
         <v>43920</v>
@@ -2632,28 +2239,28 @@
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>241</v>
+        <v>111</v>
       </c>
       <c r="F31" s="3">
         <v>42825</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J31" s="4">
-        <v>83.071605108360501</v>
+        <v>8307160.5108360499</v>
       </c>
       <c r="K31" s="4">
-        <v>57.924957173483719</v>
+        <v>5792495.7173483716</v>
       </c>
       <c r="L31" s="3">
         <v>43920</v>
@@ -2664,7 +2271,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>15</v>
@@ -2673,28 +2280,28 @@
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
       <c r="F32" s="3">
         <v>42825</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J32" s="4">
-        <v>65.282673210081612</v>
+        <v>6528267.3210081607</v>
       </c>
       <c r="K32" s="4">
-        <v>54.43384734351821</v>
+        <v>5443384.7343518212</v>
       </c>
       <c r="L32" s="3">
         <v>43920</v>
@@ -2705,7 +2312,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>16</v>
@@ -2714,28 +2321,28 @@
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="F33" s="3">
         <v>42825</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J33" s="4">
-        <v>96.052266347124359</v>
+        <v>9605226.6347124353</v>
       </c>
       <c r="K33" s="4">
-        <v>6.6627964425904027</v>
+        <v>666279.64425904024</v>
       </c>
       <c r="L33" s="3">
         <v>43920</v>
@@ -2746,7 +2353,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>13</v>
@@ -2755,28 +2362,28 @@
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>244</v>
+        <v>114</v>
       </c>
       <c r="F34" s="3">
         <v>42855</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J34" s="4">
-        <v>76.978452548701668</v>
+        <v>7697845.254870167</v>
       </c>
       <c r="K34" s="4">
-        <v>46.690089425782681</v>
+        <v>4669008.9425782682</v>
       </c>
       <c r="L34" s="3">
         <v>43950</v>
@@ -2787,7 +2394,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
@@ -2796,28 +2403,28 @@
         <v>20</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="F35" s="3">
         <v>42855</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J35" s="4">
-        <v>76.868387605913739</v>
+        <v>7686838.7605913738</v>
       </c>
       <c r="K35" s="4">
-        <v>61.627109667324028</v>
+        <v>6162710.9667324023</v>
       </c>
       <c r="L35" s="3">
         <v>43950</v>
@@ -2828,7 +2435,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -2837,28 +2444,28 @@
         <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3">
         <v>42855</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J36" s="4">
-        <v>19.165420934067335</v>
+        <v>1916542.0934067334</v>
       </c>
       <c r="K36" s="4">
-        <v>6.7672255469693834</v>
+        <v>676722.55469693837</v>
       </c>
       <c r="L36" s="3">
         <v>43950</v>
@@ -2869,7 +2476,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>16</v>
@@ -2878,28 +2485,28 @@
         <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="F37" s="3">
         <v>42855</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J37" s="4">
-        <v>78.695034332749387</v>
+        <v>7869503.4332749387</v>
       </c>
       <c r="K37" s="4">
-        <v>31.224514417813953</v>
+        <v>3122451.4417813951</v>
       </c>
       <c r="L37" s="3">
         <v>43950</v>
@@ -2910,7 +2517,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -2919,28 +2526,28 @@
         <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>248</v>
+        <v>118</v>
       </c>
       <c r="F38" s="3">
         <v>42855</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J38" s="4">
-        <v>65.393945965005429</v>
+        <v>6539394.5965005429</v>
       </c>
       <c r="K38" s="4">
-        <v>46.132504013421602</v>
+        <v>4613250.4013421601</v>
       </c>
       <c r="L38" s="3">
         <v>43950</v>
@@ -2951,7 +2558,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
@@ -2960,28 +2567,28 @@
         <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="F39" s="3">
         <v>42855</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J39" s="4">
-        <v>8.9774413086262772</v>
+        <v>897744.13086262776</v>
       </c>
       <c r="K39" s="4">
-        <v>1.5816681480066079</v>
+        <v>158166.8148006608</v>
       </c>
       <c r="L39" s="3">
         <v>43950</v>
@@ -2992,7 +2599,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -3001,28 +2608,28 @@
         <v>20</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="F40" s="3">
         <v>42855</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J40" s="4">
-        <v>27.658766218106269</v>
+        <v>2765876.6218106267</v>
       </c>
       <c r="K40" s="4">
-        <v>9.6750974127848011</v>
+        <v>967509.74127848016</v>
       </c>
       <c r="L40" s="3">
         <v>43950</v>
@@ -3033,7 +2640,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
@@ -3042,28 +2649,28 @@
         <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3">
         <v>42855</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J41" s="4">
-        <v>46.153829827109213</v>
+        <v>4615382.9827109212</v>
       </c>
       <c r="K41" s="4">
-        <v>34.371880957970632</v>
+        <v>3437188.0957970633</v>
       </c>
       <c r="L41" s="3">
         <v>43950</v>
@@ -3074,7 +2681,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>13</v>
@@ -3083,28 +2690,28 @@
         <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="F42" s="3">
         <v>42886</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J42" s="4">
-        <v>99.523791911395918</v>
+        <v>9952379.1911395919</v>
       </c>
       <c r="K42" s="4">
-        <v>74.333808671340492</v>
+        <v>7433380.8671340495</v>
       </c>
       <c r="L42" s="3">
         <v>43981</v>
@@ -3115,7 +2722,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>14</v>
@@ -3124,28 +2731,28 @@
         <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="F43" s="3">
         <v>42886</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J43" s="4">
-        <v>94.323569262224666</v>
+        <v>9432356.9262224659</v>
       </c>
       <c r="K43" s="4">
-        <v>16.420931029663823</v>
+        <v>1642093.1029663824</v>
       </c>
       <c r="L43" s="3">
         <v>43981</v>
@@ -3156,7 +2763,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>15</v>
@@ -3165,28 +2772,28 @@
         <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="F44" s="3">
         <v>42886</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J44" s="4">
-        <v>51.657717504752263</v>
+        <v>5165771.750475226</v>
       </c>
       <c r="K44" s="4">
-        <v>2.2522552589015681</v>
+        <v>225225.5258901568</v>
       </c>
       <c r="L44" s="3">
         <v>43981</v>
@@ -3197,7 +2804,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
@@ -3206,28 +2813,28 @@
         <v>20</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="F45" s="3">
         <v>42886</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J45" s="4">
-        <v>34.340776366164164</v>
+        <v>3434077.6366164163</v>
       </c>
       <c r="K45" s="4">
-        <v>33.539924417010255</v>
+        <v>3353992.4417010257</v>
       </c>
       <c r="L45" s="3">
         <v>43981</v>
@@ -3238,7 +2845,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>13</v>
@@ -3247,28 +2854,28 @@
         <v>21</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="F46" s="3">
         <v>42886</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J46" s="4">
-        <v>37.674483908889833</v>
+        <v>3767448.3908889834</v>
       </c>
       <c r="K46" s="4">
-        <v>32.173271949152102</v>
+        <v>3217327.1949152104</v>
       </c>
       <c r="L46" s="3">
         <v>43981</v>
@@ -3279,7 +2886,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>14</v>
@@ -3288,28 +2895,28 @@
         <v>17</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="F47" s="3">
         <v>42886</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J47" s="4">
-        <v>89.933665486893474</v>
+        <v>8993366.5486893468</v>
       </c>
       <c r="K47" s="4">
-        <v>86.135919301843273</v>
+        <v>8613591.9301843271</v>
       </c>
       <c r="L47" s="3">
         <v>43981</v>
@@ -3320,7 +2927,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
@@ -3329,28 +2936,28 @@
         <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="F48" s="3">
         <v>42521</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J48" s="4">
-        <v>13.464490450590761</v>
+        <v>1346449.045059076</v>
       </c>
       <c r="K48" s="4">
-        <v>8.4502554811617507</v>
+        <v>845025.54811617511</v>
       </c>
       <c r="L48" s="3">
         <v>43981</v>
@@ -3361,7 +2968,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>16</v>
@@ -3370,28 +2977,28 @@
         <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="F49" s="3">
         <v>42521</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J49" s="4">
-        <v>51.72153613364835</v>
+        <v>5172153.6133648353</v>
       </c>
       <c r="K49" s="4">
-        <v>41.576498923170789</v>
+        <v>4157649.892317079</v>
       </c>
       <c r="L49" s="3">
         <v>43981</v>
@@ -3402,7 +3009,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>13</v>
@@ -3411,28 +3018,28 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="F50" s="3">
         <v>42551</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J50" s="4">
-        <v>21.101035519511633</v>
+        <v>2110103.5519511634</v>
       </c>
       <c r="K50" s="4">
-        <v>16.085539368809084</v>
+        <v>1608553.9368809084</v>
       </c>
       <c r="L50" s="3">
         <v>44011</v>
@@ -3443,7 +3050,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>14</v>
@@ -3452,28 +3059,28 @@
         <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="F51" s="3">
         <v>42551</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J51" s="4">
-        <v>46.522456830686387</v>
+        <v>4652245.6830686387</v>
       </c>
       <c r="K51" s="4">
-        <v>8.845968601759985</v>
+        <v>884596.86017599853</v>
       </c>
       <c r="L51" s="3">
         <v>44011</v>
@@ -3484,7 +3091,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>15</v>
@@ -3493,28 +3100,28 @@
         <v>17</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="F52" s="3">
         <v>42551</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J52" s="4">
-        <v>64.344637561426765</v>
+        <v>6434463.7561426768</v>
       </c>
       <c r="K52" s="4">
-        <v>53.09420788978025</v>
+        <v>5309420.7889780253</v>
       </c>
       <c r="L52" s="3">
         <v>44011</v>
@@ -3525,7 +3132,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
@@ -3534,28 +3141,28 @@
         <v>18</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="F53" s="3">
         <v>42551</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J53" s="4">
-        <v>7.5417557248185219</v>
+        <v>754175.57248185214</v>
       </c>
       <c r="K53" s="4">
-        <v>6.6564211912578548</v>
+        <v>665642.11912578554</v>
       </c>
       <c r="L53" s="3">
         <v>44011</v>
@@ -3566,7 +3173,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>13</v>
@@ -3575,28 +3182,28 @@
         <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="F54" s="3">
         <v>42551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J54" s="4">
-        <v>50.174508434780265</v>
+        <v>5017450.8434780268</v>
       </c>
       <c r="K54" s="4">
-        <v>24.850485747316096</v>
+        <v>2485048.5747316098</v>
       </c>
       <c r="L54" s="3">
         <v>44011</v>
@@ -3607,7 +3214,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>14</v>
@@ -3616,28 +3223,28 @@
         <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="F55" s="3">
         <v>42551</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J55" s="4">
-        <v>54.15047109211595</v>
+        <v>5415047.1092115948</v>
       </c>
       <c r="K55" s="4">
-        <v>45.081428393716479</v>
+        <v>4508142.8393716477</v>
       </c>
       <c r="L55" s="3">
         <v>44011</v>
@@ -3648,7 +3255,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>15</v>
@@ -3657,28 +3264,28 @@
         <v>21</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="F56" s="3">
         <v>42551</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J56" s="4">
-        <v>92.941037463871098</v>
+        <v>9294103.7463871092</v>
       </c>
       <c r="K56" s="4">
-        <v>46.715388319860537</v>
+        <v>4671538.8319860538</v>
       </c>
       <c r="L56" s="3">
         <v>44011</v>
@@ -3689,7 +3296,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>16</v>
@@ -3698,28 +3305,28 @@
         <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="F57" s="3">
         <v>42551</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J57" s="4">
-        <v>8.1098858100761451</v>
+        <v>810988.5810076145</v>
       </c>
       <c r="K57" s="4">
-        <v>7.9168419087303015</v>
+        <v>791684.19087303011</v>
       </c>
       <c r="L57" s="3">
         <v>44011</v>
@@ -3730,7 +3337,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -3739,28 +3346,28 @@
         <v>18</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="F58" s="3">
         <v>42582</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J58" s="4">
-        <v>31.235118603364299</v>
+        <v>3123511.8603364299</v>
       </c>
       <c r="K58" s="4">
-        <v>27.581680215278492</v>
+        <v>2758168.0215278491</v>
       </c>
       <c r="L58" s="3">
         <v>44042</v>
@@ -3771,7 +3378,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>14</v>
@@ -3780,28 +3387,28 @@
         <v>19</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="F59" s="3">
         <v>42582</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J59" s="4">
-        <v>16.915435548322389</v>
+        <v>1691543.5548322389</v>
       </c>
       <c r="K59" s="4">
-        <v>8.8534985006704758</v>
+        <v>885349.85006704764</v>
       </c>
       <c r="L59" s="3">
         <v>44042</v>
@@ -3812,7 +3419,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>15</v>
@@ -3821,28 +3428,28 @@
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="F60" s="3">
         <v>42582</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J60" s="4">
-        <v>14.434874541491006</v>
+        <v>1443487.4541491005</v>
       </c>
       <c r="K60" s="4">
-        <v>12.182050887902589</v>
+        <v>1218205.0887902589</v>
       </c>
       <c r="L60" s="3">
         <v>44042</v>
@@ -3853,7 +3460,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>16</v>
@@ -3862,28 +3469,28 @@
         <v>21</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="F61" s="3">
         <v>42582</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J61" s="4">
-        <v>17.377494611188883</v>
+        <v>1737749.4611188883</v>
       </c>
       <c r="K61" s="4">
-        <v>6.3820039830695485</v>
+        <v>638200.39830695488</v>
       </c>
       <c r="L61" s="3">
         <v>44042</v>
@@ -3894,7 +3501,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>13</v>
@@ -3903,28 +3510,28 @@
         <v>17</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="F62" s="3">
         <v>42582</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J62" s="4">
-        <v>81.056395316164981</v>
+        <v>8105639.5316164978</v>
       </c>
       <c r="K62" s="4">
-        <v>0.55376712934550187</v>
+        <v>55376.712934550189</v>
       </c>
       <c r="L62" s="3">
         <v>44042</v>
@@ -3935,7 +3542,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>14</v>
@@ -3944,28 +3551,28 @@
         <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="F63" s="3">
         <v>42582</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J63" s="4">
-        <v>43.509352653486225</v>
+        <v>4350935.2653486226</v>
       </c>
       <c r="K63" s="4">
-        <v>35.921414338662316</v>
+        <v>3592141.4338662317</v>
       </c>
       <c r="L63" s="3">
         <v>44042</v>
@@ -3976,7 +3583,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>15</v>
@@ -3985,28 +3592,28 @@
         <v>19</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="F64" s="3">
         <v>42582</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J64" s="4">
-        <v>11.626943176816196</v>
+        <v>1162694.3176816197</v>
       </c>
       <c r="K64" s="4">
-        <v>1.1988617789262508</v>
+        <v>119886.17789262508</v>
       </c>
       <c r="L64" s="3">
         <v>44042</v>
@@ -4017,7 +3624,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>16</v>
@@ -4026,28 +3633,28 @@
         <v>20</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="F65" s="3">
         <v>42582</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J65" s="4">
-        <v>97.890448225910603</v>
+        <v>9789044.8225910608</v>
       </c>
       <c r="K65" s="4">
-        <v>9.8429409514976456</v>
+        <v>984294.09514976456</v>
       </c>
       <c r="L65" s="3">
         <v>44042</v>
@@ -4058,7 +3665,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>13</v>
@@ -4067,28 +3674,28 @@
         <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="F66" s="3">
         <v>42613</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J66" s="4">
-        <v>31.448200998127398</v>
+        <v>3144820.0998127395</v>
       </c>
       <c r="K66" s="4">
-        <v>18.145960219842632</v>
+        <v>1814596.0219842631</v>
       </c>
       <c r="L66" s="3">
         <v>44073</v>
@@ -4099,7 +3706,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>14</v>
@@ -4108,28 +3715,28 @@
         <v>17</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="F67" s="3">
         <v>42613</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J67" s="4">
-        <v>89.061606579496086</v>
+        <v>8906160.6579496078</v>
       </c>
       <c r="K67" s="4">
-        <v>80.423618412731614</v>
+        <v>8042361.8412731616</v>
       </c>
       <c r="L67" s="3">
         <v>44073</v>
@@ -4140,7 +3747,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>15</v>
@@ -4149,28 +3756,28 @@
         <v>18</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="F68" s="3">
         <v>42613</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J68" s="4">
-        <v>42.941209544512063</v>
+        <v>4294120.9544512061</v>
       </c>
       <c r="K68" s="4">
-        <v>28.081825443093116</v>
+        <v>2808182.5443093115</v>
       </c>
       <c r="L68" s="3">
         <v>44073</v>
@@ -4181,7 +3788,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>16</v>
@@ -4190,28 +3797,28 @@
         <v>19</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="F69" s="3">
         <v>42613</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J69" s="4">
-        <v>54.407450156912375</v>
+        <v>5440745.0156912375</v>
       </c>
       <c r="K69" s="4">
-        <v>11.578743653758494</v>
+        <v>1157874.3653758494</v>
       </c>
       <c r="L69" s="3">
         <v>44073</v>
@@ -4222,7 +3829,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -4231,28 +3838,28 @@
         <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="F70" s="3">
         <v>42613</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J70" s="4">
-        <v>91.413121333021707</v>
+        <v>9141312.1333021708</v>
       </c>
       <c r="K70" s="4">
-        <v>12.31744197973771</v>
+        <v>1231744.197973771</v>
       </c>
       <c r="L70" s="3">
         <v>44073</v>
@@ -4263,7 +3870,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>14</v>
@@ -4272,28 +3879,28 @@
         <v>21</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="F71" s="3">
         <v>42613</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J71" s="4">
-        <v>41.167271877498635</v>
+        <v>4116727.1877498636</v>
       </c>
       <c r="K71" s="4">
-        <v>38.907895963443472</v>
+        <v>3890789.5963443471</v>
       </c>
       <c r="L71" s="3">
         <v>44073</v>
@@ -4304,7 +3911,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>15</v>
@@ -4313,28 +3920,28 @@
         <v>17</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="F72" s="3">
         <v>42613</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J72" s="4">
-        <v>14.893048556951493</v>
+        <v>1489304.8556951494</v>
       </c>
       <c r="K72" s="4">
-        <v>6.4935879161031336</v>
+        <v>649358.79161031335</v>
       </c>
       <c r="L72" s="3">
         <v>44073</v>
@@ -4345,7 +3952,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>16</v>
@@ -4354,28 +3961,28 @@
         <v>18</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="F73" s="3">
         <v>42248</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J73" s="4">
-        <v>6.1997622629672229</v>
+        <v>619976.22629672231</v>
       </c>
       <c r="K73" s="4">
-        <v>0.32487335722931399</v>
+        <v>32487.335722931399</v>
       </c>
       <c r="L73" s="3">
         <v>44073</v>
@@ -4386,7 +3993,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>13</v>
@@ -4395,28 +4002,28 @@
         <v>19</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="F74" s="3">
         <v>42278</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J74" s="4">
-        <v>33.406044970563755</v>
+        <v>3340604.4970563757</v>
       </c>
       <c r="K74" s="4">
-        <v>13.036525933087589</v>
+        <v>1303652.5933087589</v>
       </c>
       <c r="L74" s="3">
         <v>44103</v>
@@ -4427,7 +4034,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>14</v>
@@ -4436,28 +4043,28 @@
         <v>20</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="F75" s="3">
         <v>42279</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J75" s="4">
-        <v>15.555774157925606</v>
+        <v>1555577.4157925607</v>
       </c>
       <c r="K75" s="4">
-        <v>8.3083880660007825</v>
+        <v>830838.80660007824</v>
       </c>
       <c r="L75" s="3">
         <v>44103</v>
@@ -4468,7 +4075,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>15</v>
@@ -4477,28 +4084,28 @@
         <v>21</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="F76" s="3">
         <v>42280</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J76" s="4">
-        <v>75.566889700513855</v>
+        <v>7556688.9700513855</v>
       </c>
       <c r="K76" s="4">
-        <v>62.193908206601904</v>
+        <v>6219390.8206601907</v>
       </c>
       <c r="L76" s="3">
         <v>44103</v>
@@ -4509,7 +4116,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>16</v>
@@ -4518,28 +4125,28 @@
         <v>17</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="F77" s="3">
         <v>42281</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J77" s="4">
-        <v>35.584414807881835</v>
+        <v>3558441.4807881834</v>
       </c>
       <c r="K77" s="4">
-        <v>25.996397914109718</v>
+        <v>2599639.7914109719</v>
       </c>
       <c r="L77" s="3">
         <v>44103</v>
@@ -4550,7 +4157,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>13</v>
@@ -4559,28 +4166,28 @@
         <v>18</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>288</v>
+        <v>158</v>
       </c>
       <c r="F78" s="3">
         <v>42282</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J78" s="4">
-        <v>8.4893041014468373</v>
+        <v>848930.41014468379</v>
       </c>
       <c r="K78" s="4">
-        <v>8.2657726319605231</v>
+        <v>826577.26319605228</v>
       </c>
       <c r="L78" s="3">
         <v>44103</v>
@@ -4591,7 +4198,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>14</v>
@@ -4600,28 +4207,28 @@
         <v>19</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="F79" s="3">
         <v>42283</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J79" s="4">
-        <v>44.800328993178141</v>
+        <v>4480032.899317814</v>
       </c>
       <c r="K79" s="4">
-        <v>38.683165145888175</v>
+        <v>3868316.5145888175</v>
       </c>
       <c r="L79" s="3">
         <v>44103</v>
@@ -4632,7 +4239,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>15</v>
@@ -4641,28 +4248,28 @@
         <v>20</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="F80" s="3">
         <v>42284</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J80" s="4">
-        <v>67.038564144310513</v>
+        <v>6703856.4144310514</v>
       </c>
       <c r="K80" s="4">
-        <v>12.313617578862566</v>
+        <v>1231361.7578862566</v>
       </c>
       <c r="L80" s="3">
         <v>44103</v>
@@ -4673,7 +4280,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>16</v>
@@ -4682,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="F81" s="3">
         <v>42285</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J81" s="4">
-        <v>94.436584676953558</v>
+        <v>9443658.4676953554</v>
       </c>
       <c r="K81" s="4">
-        <v>78.951860080652892</v>
+        <v>7895186.0080652889</v>
       </c>
       <c r="L81" s="3">
         <v>44103</v>
@@ -4714,7 +4321,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>13</v>
@@ -4723,28 +4330,28 @@
         <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="F82" s="3">
         <v>42286</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J82" s="4">
-        <v>23.331766571562408</v>
+        <v>2333176.6571562407</v>
       </c>
       <c r="K82" s="4">
-        <v>5.3368430953136485</v>
+        <v>533684.30953136482</v>
       </c>
       <c r="L82" s="3">
         <v>44134</v>
@@ -4755,7 +4362,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>14</v>
@@ -4764,28 +4371,28 @@
         <v>18</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="F83" s="3">
         <v>42287</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J83" s="4">
-        <v>16.343454247596732</v>
+        <v>1634345.4247596732</v>
       </c>
       <c r="K83" s="4">
-        <v>0.80199132827427688</v>
+        <v>80199.132827427689</v>
       </c>
       <c r="L83" s="3">
         <v>44134</v>
@@ -4796,7 +4403,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>15</v>
@@ -4805,28 +4412,28 @@
         <v>19</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="F84" s="3">
         <v>42288</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J84" s="4">
-        <v>11.001274778631466</v>
+        <v>1100127.4778631465</v>
       </c>
       <c r="K84" s="4">
-        <v>5.4788337884531204</v>
+        <v>547883.37884531205</v>
       </c>
       <c r="L84" s="3">
         <v>44134</v>
@@ -4837,7 +4444,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>16</v>
@@ -4846,28 +4453,28 @@
         <v>20</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="F85" s="3">
         <v>42289</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J85" s="4">
-        <v>23.073996515151173</v>
+        <v>2307399.6515151174</v>
       </c>
       <c r="K85" s="4">
-        <v>17.506738600604582</v>
+        <v>1750673.8600604581</v>
       </c>
       <c r="L85" s="3">
         <v>44134</v>
@@ -4878,7 +4485,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>13</v>
@@ -4887,28 +4494,28 @@
         <v>21</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="F86" s="3">
         <v>42290</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J86" s="4">
-        <v>39.062171923765355</v>
+        <v>3906217.1923765354</v>
       </c>
       <c r="K86" s="4">
-        <v>7.1338515776814493</v>
+        <v>713385.15776814497</v>
       </c>
       <c r="L86" s="3">
         <v>44134</v>
@@ -4919,7 +4526,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>14</v>
@@ -4928,28 +4535,28 @@
         <v>17</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="F87" s="3">
         <v>42291</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J87" s="4">
-        <v>31.261540859226422</v>
+        <v>3126154.0859226421</v>
       </c>
       <c r="K87" s="4">
-        <v>20.352068312824866</v>
+        <v>2035206.8312824867</v>
       </c>
       <c r="L87" s="3">
         <v>44134</v>
@@ -4960,7 +4567,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>15</v>
@@ -4969,28 +4576,28 @@
         <v>18</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>298</v>
+        <v>168</v>
       </c>
       <c r="F88" s="3">
         <v>42292</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J88" s="4">
-        <v>83.232247781593713</v>
+        <v>8323224.7781593716</v>
       </c>
       <c r="K88" s="4">
-        <v>63.126801375637989</v>
+        <v>6312680.1375637986</v>
       </c>
       <c r="L88" s="3">
         <v>44134</v>
@@ -5001,7 +4608,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>16</v>
@@ -5010,28 +4617,28 @@
         <v>19</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="F89" s="3">
         <v>42293</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J89" s="4">
-        <v>47.737675765291968</v>
+        <v>4773767.5765291965</v>
       </c>
       <c r="K89" s="4">
-        <v>25.070796051518943</v>
+        <v>2507079.6051518945</v>
       </c>
       <c r="L89" s="3">
         <v>44134</v>
@@ -5042,7 +4649,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>13</v>
@@ -5051,28 +4658,28 @@
         <v>20</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="F90" s="3">
         <v>42294</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J90" s="4">
-        <v>59.742943906560185</v>
+        <v>5974294.3906560186</v>
       </c>
       <c r="K90" s="4">
-        <v>48.908822333574328</v>
+        <v>4890882.2333574332</v>
       </c>
       <c r="L90" s="3">
         <v>44164</v>
@@ -5083,7 +4690,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>14</v>
@@ -5092,28 +4699,28 @@
         <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="F91" s="3">
         <v>42295</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>314</v>
+        <v>183</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J91" s="4">
-        <v>71.040078104059191</v>
+        <v>7104007.8104059193</v>
       </c>
       <c r="K91" s="4">
-        <v>47.845478859839474</v>
+        <v>4784547.8859839477</v>
       </c>
       <c r="L91" s="3">
         <v>44164</v>
@@ -5124,7 +4731,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>15</v>
@@ -5133,28 +4740,28 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="F92" s="3">
         <v>42296</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J92" s="4">
-        <v>89.152423453407025</v>
+        <v>8915242.3453407027</v>
       </c>
       <c r="K92" s="4">
-        <v>41.087070193158866</v>
+        <v>4108707.0193158868</v>
       </c>
       <c r="L92" s="3">
         <v>44164</v>
@@ -5165,7 +4772,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>16</v>
@@ -5174,28 +4781,28 @@
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="F93" s="3">
         <v>42297</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="J93" s="4">
-        <v>17.045848429280632</v>
+        <v>1704584.8429280631</v>
       </c>
       <c r="K93" s="4">
-        <v>13.036833436043004</v>
+        <v>1303683.3436043004</v>
       </c>
       <c r="L93" s="3">
         <v>44164</v>
@@ -5206,7 +4813,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>13</v>
@@ -5215,28 +4822,28 @@
         <v>19</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="F94" s="3">
         <v>42298</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>314</v>
+        <v>182</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="J94" s="4">
-        <v>1.3667021320850847</v>
+        <v>136670.21320850847</v>
       </c>
       <c r="K94" s="4">
-        <v>0.14116768795532833</v>
+        <v>14116.768795532833</v>
       </c>
       <c r="L94" s="3">
         <v>44164</v>
@@ -5247,7 +4854,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>14</v>
@@ -5256,28 +4863,28 @@
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="F95" s="3">
         <v>42299</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="J95" s="4">
-        <v>98.099891987785796</v>
+        <v>9809989.198778579</v>
       </c>
       <c r="K95" s="4">
-        <v>73.651449201676343</v>
+        <v>7365144.9201676343</v>
       </c>
       <c r="L95" s="3">
         <v>44164</v>
@@ -5288,7 +4895,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>15</v>
@@ -5297,28 +4904,28 @@
         <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="F96" s="3">
         <v>42300</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="J96" s="4">
-        <v>56.002148385251246</v>
+        <v>5600214.8385251248</v>
       </c>
       <c r="K96" s="4">
-        <v>22.399958343582067</v>
+        <v>2239995.834358207</v>
       </c>
       <c r="L96" s="3">
         <v>44164</v>
@@ -5329,7 +4936,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>13</v>
@@ -5338,28 +4945,28 @@
         <v>17</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="F97" s="3">
         <v>42301</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>314</v>
+        <v>198</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="J97" s="4">
-        <v>17.663461160376738</v>
+        <v>1766346.1160376738</v>
       </c>
       <c r="K97" s="4">
-        <v>14.433610515003354</v>
+        <v>1443361.0515003353</v>
       </c>
       <c r="L97" s="3">
         <v>44164</v>
@@ -5370,7 +4977,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>14</v>
@@ -5379,28 +4986,28 @@
         <v>18</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="F98" s="3">
         <v>42302</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J98" s="4">
-        <v>17.611732054927241</v>
+        <v>1761173.2054927242</v>
       </c>
       <c r="K98" s="4">
-        <v>8.3189900537342254</v>
+        <v>831899.00537342252</v>
       </c>
       <c r="L98" s="3">
         <v>44164</v>
@@ -5411,7 +5018,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>15</v>
@@ -5420,28 +5027,28 @@
         <v>19</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="F99" s="3">
         <v>42303</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="J99" s="4">
-        <v>46.007808529892635</v>
+        <v>4600780.8529892638</v>
       </c>
       <c r="K99" s="4">
-        <v>40.47232096843446</v>
+        <v>4047232.0968434461</v>
       </c>
       <c r="L99" s="3">
         <v>44164</v>
@@ -5452,7 +5059,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>16</v>
@@ -5461,28 +5068,28 @@
         <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>328</v>
+        <v>59</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="F100" s="3">
         <v>42304</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="J100" s="4">
-        <v>83.246043295446839</v>
+        <v>8324604.3295446839</v>
       </c>
       <c r="K100" s="4">
-        <v>26.063893485076637</v>
+        <v>2606389.3485076637</v>
       </c>
       <c r="L100" s="3">
         <v>44164</v>
@@ -5493,7 +5100,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>13</v>
@@ -5502,28 +5109,28 @@
         <v>21</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="F101" s="3">
         <v>42305</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="J101" s="4">
-        <v>18.086297421007338</v>
+        <v>1808629.7421007338</v>
       </c>
       <c r="K101" s="4">
-        <v>15.190963161625351</v>
+        <v>1519096.3161625352</v>
       </c>
       <c r="L101" s="3">
         <v>44164</v>
